--- a/results/mp/deberta/corona/confidence/168/stop-words-desired-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-desired-0.15/avg_0.004_scores.xlsx
@@ -127,10 +127,10 @@
     <t>help</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>hand</t>
   </si>
   <si>
     <t>care</t>
@@ -1105,25 +1105,25 @@
         <v>28</v>
       </c>
       <c r="K19">
-        <v>0.762114537444934</v>
+        <v>0.7238493723849372</v>
       </c>
       <c r="L19">
         <v>173</v>
       </c>
       <c r="M19">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="N19">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1339,25 +1339,25 @@
         <v>37</v>
       </c>
       <c r="K28">
-        <v>0.6646153846153846</v>
+        <v>0.6526315789473685</v>
       </c>
       <c r="L28">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="M28">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="N28">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="O28">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P28" t="b">
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>109</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1365,25 +1365,25 @@
         <v>38</v>
       </c>
       <c r="K29">
-        <v>0.6526315789473685</v>
+        <v>0.6352941176470588</v>
       </c>
       <c r="L29">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="M29">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="N29">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="10:17">
